--- a/data/pca/factorExposure/factorExposure_2012-03-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01728995723006316</v>
+        <v>0.01641558019779939</v>
       </c>
       <c r="C2">
-        <v>0.03481345998435821</v>
+        <v>-0.02808427799553001</v>
       </c>
       <c r="D2">
-        <v>0.01108237955780218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0003598876213428151</v>
+      </c>
+      <c r="E2">
+        <v>0.01116458919160077</v>
+      </c>
+      <c r="F2">
+        <v>0.01119001391231909</v>
+      </c>
+      <c r="G2">
+        <v>-0.01349870351844016</v>
+      </c>
+      <c r="H2">
+        <v>-0.05743232612655244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0745440688574832</v>
+        <v>0.08816391841063247</v>
       </c>
       <c r="C4">
-        <v>0.05309857029596256</v>
+        <v>-0.03818599983818848</v>
       </c>
       <c r="D4">
-        <v>-0.07829940922287082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0650299301375826</v>
+      </c>
+      <c r="E4">
+        <v>0.01501504184206952</v>
+      </c>
+      <c r="F4">
+        <v>0.03062883760193615</v>
+      </c>
+      <c r="G4">
+        <v>-0.003290297613942208</v>
+      </c>
+      <c r="H4">
+        <v>0.0404823845431607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1092950817505074</v>
+        <v>0.1197115608730374</v>
       </c>
       <c r="C6">
-        <v>0.05775043130359993</v>
+        <v>-0.03518126238213451</v>
       </c>
       <c r="D6">
-        <v>0.006618975324525604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01166283380153682</v>
+      </c>
+      <c r="E6">
+        <v>-0.004952092024277065</v>
+      </c>
+      <c r="F6">
+        <v>0.05795657215181781</v>
+      </c>
+      <c r="G6">
+        <v>-0.03819894046652998</v>
+      </c>
+      <c r="H6">
+        <v>-0.1090976334108003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.048531424632245</v>
+        <v>0.06382643465154345</v>
       </c>
       <c r="C7">
-        <v>0.02778129074546004</v>
+        <v>-0.02011681249885184</v>
       </c>
       <c r="D7">
-        <v>-0.04665685876634289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0460959473347417</v>
+      </c>
+      <c r="E7">
+        <v>0.03667879571038895</v>
+      </c>
+      <c r="F7">
+        <v>0.03202793042798546</v>
+      </c>
+      <c r="G7">
+        <v>0.03717465016773374</v>
+      </c>
+      <c r="H7">
+        <v>0.003605693097366227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03718229224208597</v>
+        <v>0.04060947667026813</v>
       </c>
       <c r="C8">
-        <v>0.01119169133586136</v>
+        <v>-0.007078029012730826</v>
       </c>
       <c r="D8">
-        <v>-0.04990181799740578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02068233542416972</v>
+      </c>
+      <c r="E8">
+        <v>0.03586875366712071</v>
+      </c>
+      <c r="F8">
+        <v>0.04958004680859181</v>
+      </c>
+      <c r="G8">
+        <v>-0.04970728521064981</v>
+      </c>
+      <c r="H8">
+        <v>-0.0001907138687400612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06718114457222917</v>
+        <v>0.0790920466442305</v>
       </c>
       <c r="C9">
-        <v>0.04213755458635493</v>
+        <v>-0.02800360326639265</v>
       </c>
       <c r="D9">
-        <v>-0.072026579642092</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06345295501324752</v>
+      </c>
+      <c r="E9">
+        <v>0.0384877309052352</v>
+      </c>
+      <c r="F9">
+        <v>0.03153867708246841</v>
+      </c>
+      <c r="G9">
+        <v>-0.004333388993457558</v>
+      </c>
+      <c r="H9">
+        <v>0.04756714734027212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0283715758209768</v>
+        <v>0.03440508185642492</v>
       </c>
       <c r="C10">
-        <v>0.03372757408873032</v>
+        <v>-0.04232509489149515</v>
       </c>
       <c r="D10">
-        <v>0.1791856549778529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1702769952083687</v>
+      </c>
+      <c r="E10">
+        <v>0.04910568745707658</v>
+      </c>
+      <c r="F10">
+        <v>0.04514960359050139</v>
+      </c>
+      <c r="G10">
+        <v>0.03424113633872506</v>
+      </c>
+      <c r="H10">
+        <v>-0.04526075005790841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07021192017082913</v>
+        <v>0.07629766023169905</v>
       </c>
       <c r="C11">
-        <v>0.04735764489996686</v>
+        <v>-0.02774271805837344</v>
       </c>
       <c r="D11">
-        <v>-0.05570212454025324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0628632158971703</v>
+      </c>
+      <c r="E11">
+        <v>-0.002348373723735671</v>
+      </c>
+      <c r="F11">
+        <v>0.02678677239842656</v>
+      </c>
+      <c r="G11">
+        <v>0.007640712856176654</v>
+      </c>
+      <c r="H11">
+        <v>0.08810962745932779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05778889973350161</v>
+        <v>0.06716710724229306</v>
       </c>
       <c r="C12">
-        <v>0.05199042010155654</v>
+        <v>-0.03670843488240207</v>
       </c>
       <c r="D12">
-        <v>-0.04521341567722306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04863742264797926</v>
+      </c>
+      <c r="E12">
+        <v>0.01280742006226263</v>
+      </c>
+      <c r="F12">
+        <v>0.01963509028751974</v>
+      </c>
+      <c r="G12">
+        <v>0.0004779100104277162</v>
+      </c>
+      <c r="H12">
+        <v>0.04634679435855243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.05987195691435947</v>
+        <v>0.06546880599761828</v>
       </c>
       <c r="C13">
-        <v>0.03939301868724304</v>
+        <v>-0.02470092666629508</v>
       </c>
       <c r="D13">
-        <v>-0.06330327808329711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0409543916919797</v>
+      </c>
+      <c r="E13">
+        <v>0.01423407355466302</v>
+      </c>
+      <c r="F13">
+        <v>0.001217557341823298</v>
+      </c>
+      <c r="G13">
+        <v>0.01428077908793631</v>
+      </c>
+      <c r="H13">
+        <v>0.04003154054042583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03285348212875878</v>
+        <v>0.0416967735411265</v>
       </c>
       <c r="C14">
-        <v>0.03205958531333594</v>
+        <v>-0.02815027785719876</v>
       </c>
       <c r="D14">
-        <v>0.001151965961934703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.004992729952483256</v>
+      </c>
+      <c r="E14">
+        <v>0.03219638232062382</v>
+      </c>
+      <c r="F14">
+        <v>0.01118846119647286</v>
+      </c>
+      <c r="G14">
+        <v>-0.003775147077057157</v>
+      </c>
+      <c r="H14">
+        <v>0.05689320772314221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.0388047089898796</v>
+        <v>0.03953527682932408</v>
       </c>
       <c r="C15">
-        <v>0.01050853242832192</v>
+        <v>-0.003118977406122719</v>
       </c>
       <c r="D15">
-        <v>-0.01696047570972048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00344679801398278</v>
+      </c>
+      <c r="E15">
+        <v>0.04095537240525828</v>
+      </c>
+      <c r="F15">
+        <v>-0.006118235907733797</v>
+      </c>
+      <c r="G15">
+        <v>-0.02488249189173433</v>
+      </c>
+      <c r="H15">
+        <v>0.03479226699341952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06084328166009429</v>
+        <v>0.07036221949535787</v>
       </c>
       <c r="C16">
-        <v>0.04345095331154195</v>
+        <v>-0.02848985097416242</v>
       </c>
       <c r="D16">
-        <v>-0.04581817055007013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06226563494747781</v>
+      </c>
+      <c r="E16">
+        <v>0.006627278517408731</v>
+      </c>
+      <c r="F16">
+        <v>0.02398370925082517</v>
+      </c>
+      <c r="G16">
+        <v>0.00621263665602757</v>
+      </c>
+      <c r="H16">
+        <v>0.05360252115409422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06426861391904293</v>
+        <v>0.06337717214605704</v>
       </c>
       <c r="C20">
-        <v>0.03181317072114832</v>
+        <v>-0.01334311312617811</v>
       </c>
       <c r="D20">
-        <v>-0.04911930974457979</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04054068958704436</v>
+      </c>
+      <c r="E20">
+        <v>0.03400126878423015</v>
+      </c>
+      <c r="F20">
+        <v>0.01608360036588152</v>
+      </c>
+      <c r="G20">
+        <v>-0.00929000106110771</v>
+      </c>
+      <c r="H20">
+        <v>0.04564705513936627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02342819088054205</v>
+        <v>0.02452275031559547</v>
       </c>
       <c r="C21">
-        <v>-0.003105423063975542</v>
+        <v>0.01039800711735245</v>
       </c>
       <c r="D21">
-        <v>-0.02574109369624453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02753414030787854</v>
+      </c>
+      <c r="E21">
+        <v>0.04156491091656256</v>
+      </c>
+      <c r="F21">
+        <v>-0.01344175315899214</v>
+      </c>
+      <c r="G21">
+        <v>-0.01101730075451653</v>
+      </c>
+      <c r="H21">
+        <v>-0.05208503585123304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07728365704859533</v>
+        <v>0.07184062218114391</v>
       </c>
       <c r="C22">
-        <v>0.0597847157921772</v>
+        <v>-0.03891968854810406</v>
       </c>
       <c r="D22">
-        <v>-0.1018980197363948</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06542508927464916</v>
+      </c>
+      <c r="E22">
+        <v>0.5685647256489021</v>
+      </c>
+      <c r="F22">
+        <v>-0.2365757078831906</v>
+      </c>
+      <c r="G22">
+        <v>0.0559539114811399</v>
+      </c>
+      <c r="H22">
+        <v>-0.1602173886397469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07825862444933794</v>
+        <v>0.07247307236092185</v>
       </c>
       <c r="C23">
-        <v>0.05869579170521932</v>
+        <v>-0.03761239242351205</v>
       </c>
       <c r="D23">
-        <v>-0.1034718538470734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06629727547234064</v>
+      </c>
+      <c r="E23">
+        <v>0.5680010079290539</v>
+      </c>
+      <c r="F23">
+        <v>-0.2351659558209724</v>
+      </c>
+      <c r="G23">
+        <v>0.05455782402542023</v>
+      </c>
+      <c r="H23">
+        <v>-0.1554078464236801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07122822722934291</v>
+        <v>0.0797015452288056</v>
       </c>
       <c r="C24">
-        <v>0.05216519143833409</v>
+        <v>-0.03393092103410381</v>
       </c>
       <c r="D24">
-        <v>-0.058143295032747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0599282959543888</v>
+      </c>
+      <c r="E24">
+        <v>0.01653736254579113</v>
+      </c>
+      <c r="F24">
+        <v>0.03437847465809281</v>
+      </c>
+      <c r="G24">
+        <v>-0.007269778793647327</v>
+      </c>
+      <c r="H24">
+        <v>0.05881810306128951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07069164180848161</v>
+        <v>0.07734983752115329</v>
       </c>
       <c r="C25">
-        <v>0.05743495576407037</v>
+        <v>-0.0388267883390887</v>
       </c>
       <c r="D25">
-        <v>-0.06635747749952972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0522947497778732</v>
+      </c>
+      <c r="E25">
+        <v>0.01996717279779234</v>
+      </c>
+      <c r="F25">
+        <v>0.0266770642139489</v>
+      </c>
+      <c r="G25">
+        <v>-0.01732431566319627</v>
+      </c>
+      <c r="H25">
+        <v>0.06063710692381419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04462533046084061</v>
+        <v>0.04717043934638291</v>
       </c>
       <c r="C26">
-        <v>0.01025647087852743</v>
+        <v>-0.002263636165249699</v>
       </c>
       <c r="D26">
-        <v>-0.01310133314230107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01859093973181243</v>
+      </c>
+      <c r="E26">
+        <v>0.05282800848514311</v>
+      </c>
+      <c r="F26">
+        <v>0.01959155876463052</v>
+      </c>
+      <c r="G26">
+        <v>0.006921115284901929</v>
+      </c>
+      <c r="H26">
+        <v>0.04817438047757797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0518034589134931</v>
+        <v>0.06214866806451465</v>
       </c>
       <c r="C28">
-        <v>0.07673831180947856</v>
+        <v>-0.08656352374721106</v>
       </c>
       <c r="D28">
-        <v>0.3149595379327286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3062744745321231</v>
+      </c>
+      <c r="E28">
+        <v>0.02500336443746937</v>
+      </c>
+      <c r="F28">
+        <v>0.05618714380051715</v>
+      </c>
+      <c r="G28">
+        <v>-0.03525746349990588</v>
+      </c>
+      <c r="H28">
+        <v>-0.04418235016181542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03992957928578692</v>
+        <v>0.04819469793630803</v>
       </c>
       <c r="C29">
-        <v>0.03139565390366506</v>
+        <v>-0.0260623216979638</v>
       </c>
       <c r="D29">
-        <v>0.0004909894402368346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.005489687720365259</v>
+      </c>
+      <c r="E29">
+        <v>0.05575538638749305</v>
+      </c>
+      <c r="F29">
+        <v>-0.002641167911171907</v>
+      </c>
+      <c r="G29">
+        <v>0.01312595784111868</v>
+      </c>
+      <c r="H29">
+        <v>0.07765449874003141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1275613935690488</v>
+        <v>0.1323250152537896</v>
       </c>
       <c r="C30">
-        <v>0.09598824771363797</v>
+        <v>-0.06455657674331804</v>
       </c>
       <c r="D30">
-        <v>-0.1125520413310517</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.06953127130018893</v>
+      </c>
+      <c r="E30">
+        <v>0.08409178900369424</v>
+      </c>
+      <c r="F30">
+        <v>-0.02217874077629375</v>
+      </c>
+      <c r="G30">
+        <v>-0.07129816787408905</v>
+      </c>
+      <c r="H30">
+        <v>-0.03428017833691879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04215009485038571</v>
+        <v>0.04891622320017829</v>
       </c>
       <c r="C31">
-        <v>0.02279182796203758</v>
+        <v>-0.01509494099078904</v>
       </c>
       <c r="D31">
-        <v>-0.02631258814119726</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0248867298241026</v>
+      </c>
+      <c r="E31">
+        <v>0.02751247258536503</v>
+      </c>
+      <c r="F31">
+        <v>0.007993877410977688</v>
+      </c>
+      <c r="G31">
+        <v>0.02940719798821108</v>
+      </c>
+      <c r="H31">
+        <v>0.0624337436279017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03525527625091357</v>
+        <v>0.03861028997786618</v>
       </c>
       <c r="C32">
-        <v>0.02389332001042815</v>
+        <v>-0.01838890457517411</v>
       </c>
       <c r="D32">
-        <v>-0.02786080715541319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01166585017093525</v>
+      </c>
+      <c r="E32">
+        <v>0.07051866754768814</v>
+      </c>
+      <c r="F32">
+        <v>-0.01896275185722853</v>
+      </c>
+      <c r="G32">
+        <v>-0.02038397412950814</v>
+      </c>
+      <c r="H32">
+        <v>0.07757706176059581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0824595920073028</v>
+        <v>0.09522123022162049</v>
       </c>
       <c r="C33">
-        <v>0.04417309315726722</v>
+        <v>-0.02656967063919959</v>
       </c>
       <c r="D33">
-        <v>-0.0653044931987499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04934773284080488</v>
+      </c>
+      <c r="E33">
+        <v>0.01482684810609512</v>
+      </c>
+      <c r="F33">
+        <v>0.0005610514856677669</v>
+      </c>
+      <c r="G33">
+        <v>0.0109034022555581</v>
+      </c>
+      <c r="H33">
+        <v>0.0636782054933541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05650165804504472</v>
+        <v>0.06239852715169436</v>
       </c>
       <c r="C34">
-        <v>0.02955131062957232</v>
+        <v>-0.0142889152407785</v>
       </c>
       <c r="D34">
-        <v>-0.05483523645249823</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05410333219072379</v>
+      </c>
+      <c r="E34">
+        <v>0.00891697115772974</v>
+      </c>
+      <c r="F34">
+        <v>0.01733297415166685</v>
+      </c>
+      <c r="G34">
+        <v>-0.0002873149687333167</v>
+      </c>
+      <c r="H34">
+        <v>0.05900693947773177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03679539624728046</v>
+        <v>0.04024087315376321</v>
       </c>
       <c r="C35">
-        <v>0.008615739608701271</v>
+        <v>-0.003568117000803753</v>
       </c>
       <c r="D35">
-        <v>-0.006675752825351946</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.007993773267140871</v>
+      </c>
+      <c r="E35">
+        <v>0.018421023400359</v>
+      </c>
+      <c r="F35">
+        <v>-0.01932489638657928</v>
+      </c>
+      <c r="G35">
+        <v>0.01251933974332596</v>
+      </c>
+      <c r="H35">
+        <v>0.01842815439090802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02049685855297543</v>
+        <v>0.02755694095869013</v>
       </c>
       <c r="C36">
-        <v>0.01763748951286254</v>
+        <v>-0.01401506057084277</v>
       </c>
       <c r="D36">
-        <v>-0.01608320059593014</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01227012531967005</v>
+      </c>
+      <c r="E36">
+        <v>0.04362909189024882</v>
+      </c>
+      <c r="F36">
+        <v>0.01247446416182526</v>
+      </c>
+      <c r="G36">
+        <v>0.0136263085320701</v>
+      </c>
+      <c r="H36">
+        <v>0.04358347278865231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03925551720984809</v>
+        <v>0.04421231832415423</v>
       </c>
       <c r="C38">
-        <v>0.003946157691255793</v>
+        <v>0.001034130327165863</v>
       </c>
       <c r="D38">
-        <v>-0.01722381035713675</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01621037171950587</v>
+      </c>
+      <c r="E38">
+        <v>0.05223919828936761</v>
+      </c>
+      <c r="F38">
+        <v>-0.01822209940769881</v>
+      </c>
+      <c r="G38">
+        <v>-0.00780426193187037</v>
+      </c>
+      <c r="H38">
+        <v>0.03018546007827095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.08985738673256138</v>
+        <v>0.1022865469221962</v>
       </c>
       <c r="C39">
-        <v>0.07322719871536684</v>
+        <v>-0.05148331890848955</v>
       </c>
       <c r="D39">
-        <v>-0.06704824467887578</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0647778439301623</v>
+      </c>
+      <c r="E39">
+        <v>-0.0006812175925072809</v>
+      </c>
+      <c r="F39">
+        <v>0.005957954509403905</v>
+      </c>
+      <c r="G39">
+        <v>-0.0295140984481684</v>
+      </c>
+      <c r="H39">
+        <v>0.05964430509710987</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07458000011897922</v>
+        <v>0.07163639068576973</v>
       </c>
       <c r="C40">
-        <v>0.04119306299630426</v>
+        <v>-0.01979916707086399</v>
       </c>
       <c r="D40">
-        <v>0.003404389186479818</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0115037802069664</v>
+      </c>
+      <c r="E40">
+        <v>0.02025583374360265</v>
+      </c>
+      <c r="F40">
+        <v>-0.05550822161166846</v>
+      </c>
+      <c r="G40">
+        <v>-0.04731335493399347</v>
+      </c>
+      <c r="H40">
+        <v>-0.09383467344969224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04064737175467822</v>
+        <v>0.04349103248443059</v>
       </c>
       <c r="C41">
-        <v>0.005478993600649606</v>
+        <v>0.002011788922384164</v>
       </c>
       <c r="D41">
-        <v>-0.03782944712045487</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0341439019146384</v>
+      </c>
+      <c r="E41">
+        <v>0.004728728254109324</v>
+      </c>
+      <c r="F41">
+        <v>-0.01727655182539847</v>
+      </c>
+      <c r="G41">
+        <v>-0.007454397062366796</v>
+      </c>
+      <c r="H41">
+        <v>0.0325831945879291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04717235574485927</v>
+        <v>0.05751847350987752</v>
       </c>
       <c r="C43">
-        <v>0.02639370522801122</v>
+        <v>-0.01779793254397873</v>
       </c>
       <c r="D43">
-        <v>-0.0181312236740589</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02546192057690692</v>
+      </c>
+      <c r="E43">
+        <v>0.01918325823033856</v>
+      </c>
+      <c r="F43">
+        <v>0.009393642425961813</v>
+      </c>
+      <c r="G43">
+        <v>0.01815316934261447</v>
+      </c>
+      <c r="H43">
+        <v>0.05125579966263889</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0936735460445242</v>
+        <v>0.09504977910658918</v>
       </c>
       <c r="C44">
-        <v>0.09366716674997241</v>
+        <v>-0.06544538778349362</v>
       </c>
       <c r="D44">
-        <v>-0.08143631611858515</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06063105025262167</v>
+      </c>
+      <c r="E44">
+        <v>0.09304511850615037</v>
+      </c>
+      <c r="F44">
+        <v>0.03688207219921647</v>
+      </c>
+      <c r="G44">
+        <v>-0.0182525908635362</v>
+      </c>
+      <c r="H44">
+        <v>0.03566105880236244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02469061562623504</v>
+        <v>0.03321193304453454</v>
       </c>
       <c r="C46">
-        <v>0.01444114572185341</v>
+        <v>-0.01176716292680153</v>
       </c>
       <c r="D46">
-        <v>-0.01887954317064739</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03116549870832086</v>
+      </c>
+      <c r="E46">
+        <v>0.02922009962789742</v>
+      </c>
+      <c r="F46">
+        <v>0.01332822419906138</v>
+      </c>
+      <c r="G46">
+        <v>0.002000267359075384</v>
+      </c>
+      <c r="H46">
+        <v>0.03531653415735631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03034144816048131</v>
+        <v>0.03808090831824725</v>
       </c>
       <c r="C47">
-        <v>0.0248167080216987</v>
+        <v>-0.02020538798672895</v>
       </c>
       <c r="D47">
-        <v>-0.01039535028411942</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.009102254340398411</v>
+      </c>
+      <c r="E47">
+        <v>0.05052938224938934</v>
+      </c>
+      <c r="F47">
+        <v>0.006674787075425269</v>
+      </c>
+      <c r="G47">
+        <v>0.04180215186481163</v>
+      </c>
+      <c r="H47">
+        <v>0.02293028232150252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0318986891474497</v>
+        <v>0.03752268986711932</v>
       </c>
       <c r="C48">
-        <v>0.01820867448728349</v>
+        <v>-0.01168771511008364</v>
       </c>
       <c r="D48">
-        <v>-0.03059731915161145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01873439873922598</v>
+      </c>
+      <c r="E48">
+        <v>0.04351294751645373</v>
+      </c>
+      <c r="F48">
+        <v>4.886422043573482e-05</v>
+      </c>
+      <c r="G48">
+        <v>-0.01034566462892634</v>
+      </c>
+      <c r="H48">
+        <v>0.03929228523736292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1628246897958726</v>
+        <v>0.1907981398393645</v>
       </c>
       <c r="C49">
-        <v>0.06376641835847664</v>
+        <v>-0.03543605270031473</v>
       </c>
       <c r="D49">
-        <v>0.02071181577917892</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03078374760373039</v>
+      </c>
+      <c r="E49">
+        <v>-0.146518235636032</v>
+      </c>
+      <c r="F49">
+        <v>0.07016281245423656</v>
+      </c>
+      <c r="G49">
+        <v>0.05238368267707452</v>
+      </c>
+      <c r="H49">
+        <v>-0.2366170913849171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03932672057337909</v>
+        <v>0.04594582736574663</v>
       </c>
       <c r="C50">
-        <v>0.02649886371165807</v>
+        <v>-0.01906089938271397</v>
       </c>
       <c r="D50">
-        <v>-0.03422932046138517</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02908657055036006</v>
+      </c>
+      <c r="E50">
+        <v>0.0510287663832047</v>
+      </c>
+      <c r="F50">
+        <v>0.009362972897277303</v>
+      </c>
+      <c r="G50">
+        <v>0.02525535018766249</v>
+      </c>
+      <c r="H50">
+        <v>0.05989075131751178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02517235366897493</v>
+        <v>0.02979383558993224</v>
       </c>
       <c r="C51">
-        <v>0.008822423997213499</v>
+        <v>-0.004213984180094425</v>
       </c>
       <c r="D51">
-        <v>-0.01664341791006886</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01389862720707996</v>
+      </c>
+      <c r="E51">
+        <v>0.0127986183251556</v>
+      </c>
+      <c r="F51">
+        <v>0.01979122081341408</v>
+      </c>
+      <c r="G51">
+        <v>0.001150650612408407</v>
+      </c>
+      <c r="H51">
+        <v>-0.003414605040453608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1525645744159607</v>
+        <v>0.1631448308644147</v>
       </c>
       <c r="C53">
-        <v>0.08042265985938561</v>
+        <v>-0.05268863309220201</v>
       </c>
       <c r="D53">
-        <v>-0.01781893370054177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01705964825919749</v>
+      </c>
+      <c r="E53">
+        <v>-0.02629296263681475</v>
+      </c>
+      <c r="F53">
+        <v>0.0206929525025829</v>
+      </c>
+      <c r="G53">
+        <v>0.02292343436073185</v>
+      </c>
+      <c r="H53">
+        <v>0.1737083930396714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05553210341131213</v>
+        <v>0.05791531163319764</v>
       </c>
       <c r="C54">
-        <v>0.02662463656052155</v>
+        <v>-0.01490457165525731</v>
       </c>
       <c r="D54">
-        <v>-0.02289908473011024</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01714380778690302</v>
+      </c>
+      <c r="E54">
+        <v>0.05112594713092541</v>
+      </c>
+      <c r="F54">
+        <v>0.002718995751280351</v>
+      </c>
+      <c r="G54">
+        <v>-0.009590303202578105</v>
+      </c>
+      <c r="H54">
+        <v>0.04464153800979739</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1003164104532431</v>
+        <v>0.1039490000096836</v>
       </c>
       <c r="C55">
-        <v>0.05535050418891903</v>
+        <v>-0.03454999269236037</v>
       </c>
       <c r="D55">
-        <v>-0.020631572653939</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02252987359164726</v>
+      </c>
+      <c r="E55">
+        <v>0.01881284946832725</v>
+      </c>
+      <c r="F55">
+        <v>0.01581543892463423</v>
+      </c>
+      <c r="G55">
+        <v>0.01635263993144747</v>
+      </c>
+      <c r="H55">
+        <v>0.1542784723465432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1474296048412442</v>
+        <v>0.1608152930060414</v>
       </c>
       <c r="C56">
-        <v>0.09210555833650164</v>
+        <v>-0.06379630991079561</v>
       </c>
       <c r="D56">
-        <v>-0.01669943819820739</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01858812047783654</v>
+      </c>
+      <c r="E56">
+        <v>-0.02389024096203989</v>
+      </c>
+      <c r="F56">
+        <v>0.0390352259320277</v>
+      </c>
+      <c r="G56">
+        <v>0.0315902756675961</v>
+      </c>
+      <c r="H56">
+        <v>0.1776116415419703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1260080650420389</v>
+        <v>0.0973066615302904</v>
       </c>
       <c r="C58">
-        <v>0.007670212683145532</v>
+        <v>0.03584167306936422</v>
       </c>
       <c r="D58">
-        <v>-0.03176674732580646</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0386126251236978</v>
+      </c>
+      <c r="E58">
+        <v>0.1717099773743422</v>
+      </c>
+      <c r="F58">
+        <v>-0.01540319398627266</v>
+      </c>
+      <c r="G58">
+        <v>0.04350220414948579</v>
+      </c>
+      <c r="H58">
+        <v>-0.2258120919888002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1169746900912458</v>
+        <v>0.1365705624500936</v>
       </c>
       <c r="C59">
-        <v>0.07881764855705251</v>
+        <v>-0.08575724092166925</v>
       </c>
       <c r="D59">
-        <v>0.3473191133272551</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3631847713988827</v>
+      </c>
+      <c r="E59">
+        <v>0.02379214849776225</v>
+      </c>
+      <c r="F59">
+        <v>0.01912624076933082</v>
+      </c>
+      <c r="G59">
+        <v>0.02693510679350802</v>
+      </c>
+      <c r="H59">
+        <v>-0.002311107009028202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2035289615374578</v>
+        <v>0.2322332100865797</v>
       </c>
       <c r="C60">
-        <v>0.1065750621595967</v>
+        <v>-0.06893214925389105</v>
       </c>
       <c r="D60">
-        <v>-0.001000602026676684</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03889385471085079</v>
+      </c>
+      <c r="E60">
+        <v>-0.09357383305330289</v>
+      </c>
+      <c r="F60">
+        <v>0.07325062656264876</v>
+      </c>
+      <c r="G60">
+        <v>-0.0309956335326743</v>
+      </c>
+      <c r="H60">
+        <v>-0.1576326575045843</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07846446650598031</v>
+        <v>0.08814130820315769</v>
       </c>
       <c r="C61">
-        <v>0.0521640396672061</v>
+        <v>-0.03682087755659371</v>
       </c>
       <c r="D61">
-        <v>-0.05194786439540221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04477451910442445</v>
+      </c>
+      <c r="E61">
+        <v>-0.002599178686022165</v>
+      </c>
+      <c r="F61">
+        <v>0.003215761852678059</v>
+      </c>
+      <c r="G61">
+        <v>0.004661223787926131</v>
+      </c>
+      <c r="H61">
+        <v>0.06998772092368274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1290722556645606</v>
+        <v>0.1397841372790422</v>
       </c>
       <c r="C62">
-        <v>0.06674934705860763</v>
+        <v>-0.04165644639902245</v>
       </c>
       <c r="D62">
-        <v>-0.01982133787097923</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0282580031938959</v>
+      </c>
+      <c r="E62">
+        <v>-0.06101718335515216</v>
+      </c>
+      <c r="F62">
+        <v>0.02038566991723317</v>
+      </c>
+      <c r="G62">
+        <v>-0.005477191281748958</v>
+      </c>
+      <c r="H62">
+        <v>0.1925323424813313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05086499820967934</v>
+        <v>0.05027487003732944</v>
       </c>
       <c r="C63">
-        <v>0.02539095172211263</v>
+        <v>-0.01297428086768165</v>
       </c>
       <c r="D63">
-        <v>-0.02073865486061384</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02009731931758154</v>
+      </c>
+      <c r="E63">
+        <v>0.05212181037114558</v>
+      </c>
+      <c r="F63">
+        <v>-0.01347203956310749</v>
+      </c>
+      <c r="G63">
+        <v>-0.02519111319447826</v>
+      </c>
+      <c r="H63">
+        <v>0.05531145851409686</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.104640889911679</v>
+        <v>0.1089199979587799</v>
       </c>
       <c r="C64">
-        <v>0.02384569694816027</v>
+        <v>-0.00370217763172983</v>
       </c>
       <c r="D64">
-        <v>-0.06132727026730522</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04059559763607269</v>
+      </c>
+      <c r="E64">
+        <v>0.04683539022994385</v>
+      </c>
+      <c r="F64">
+        <v>0.04162828396826485</v>
+      </c>
+      <c r="G64">
+        <v>-0.04210737444538588</v>
+      </c>
+      <c r="H64">
+        <v>0.06058505358018828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1217798574304026</v>
+        <v>0.1262856309986522</v>
       </c>
       <c r="C65">
-        <v>0.06341754967791617</v>
+        <v>-0.04050381668630889</v>
       </c>
       <c r="D65">
-        <v>0.02069319930371448</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.004393402181385561</v>
+      </c>
+      <c r="E65">
+        <v>0.01213239847398878</v>
+      </c>
+      <c r="F65">
+        <v>0.06179337885492529</v>
+      </c>
+      <c r="G65">
+        <v>-0.07270781983375293</v>
+      </c>
+      <c r="H65">
+        <v>-0.1340197444673775</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1411051798623703</v>
+        <v>0.1537240631977989</v>
       </c>
       <c r="C66">
-        <v>0.07803175922205156</v>
+        <v>-0.04739556262096016</v>
       </c>
       <c r="D66">
-        <v>-0.122101266160553</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1016961602709851</v>
+      </c>
+      <c r="E66">
+        <v>-0.02920564335912054</v>
+      </c>
+      <c r="F66">
+        <v>0.01594341359920558</v>
+      </c>
+      <c r="G66">
+        <v>-0.03579919483467369</v>
+      </c>
+      <c r="H66">
+        <v>0.1345052015335282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07141668427768254</v>
+        <v>0.08353760296577471</v>
       </c>
       <c r="C67">
-        <v>0.01421097283756222</v>
+        <v>-0.005083253617137309</v>
       </c>
       <c r="D67">
-        <v>-0.02247574011097891</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03002503474537857</v>
+      </c>
+      <c r="E67">
+        <v>0.02279816865563748</v>
+      </c>
+      <c r="F67">
+        <v>0.01258691770739425</v>
+      </c>
+      <c r="G67">
+        <v>0.01145193532363898</v>
+      </c>
+      <c r="H67">
+        <v>0.02990173350723823</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05846863593725442</v>
+        <v>0.05789060226987535</v>
       </c>
       <c r="C68">
-        <v>0.05238635026570856</v>
+        <v>-0.05886009915370249</v>
       </c>
       <c r="D68">
-        <v>0.2525530209040042</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2698205769232885</v>
+      </c>
+      <c r="E68">
+        <v>0.03559020217598648</v>
+      </c>
+      <c r="F68">
+        <v>0.01711244457966133</v>
+      </c>
+      <c r="G68">
+        <v>0.01281872143576283</v>
+      </c>
+      <c r="H68">
+        <v>0.002224182803297411</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05264485137495845</v>
+        <v>0.05318532915772816</v>
       </c>
       <c r="C69">
-        <v>0.01835185594000931</v>
+        <v>-0.005763804284144652</v>
       </c>
       <c r="D69">
-        <v>-0.01765646973703529</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01546200385389911</v>
+      </c>
+      <c r="E69">
+        <v>0.0238338873260997</v>
+      </c>
+      <c r="F69">
+        <v>-0.00998289422745869</v>
+      </c>
+      <c r="G69">
+        <v>0.01868813047570217</v>
+      </c>
+      <c r="H69">
+        <v>0.04978080152122009</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005568841848520857</v>
+        <v>0.02680394076621904</v>
       </c>
       <c r="C70">
-        <v>-0.005068553856350881</v>
+        <v>-0.0003978264446510029</v>
       </c>
       <c r="D70">
-        <v>-0.0001499851276575008</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.001421546416860267</v>
+      </c>
+      <c r="E70">
+        <v>-0.02362237087760505</v>
+      </c>
+      <c r="F70">
+        <v>0.02844012068566725</v>
+      </c>
+      <c r="G70">
+        <v>0.01568346126850134</v>
+      </c>
+      <c r="H70">
+        <v>-0.04578601498315047</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05778801930721666</v>
+        <v>0.06021092598036924</v>
       </c>
       <c r="C71">
-        <v>0.05194301627671807</v>
+        <v>-0.06239689616569254</v>
       </c>
       <c r="D71">
-        <v>0.2943374370278818</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2951396078276092</v>
+      </c>
+      <c r="E71">
+        <v>0.03144795660841938</v>
+      </c>
+      <c r="F71">
+        <v>0.0435196979891223</v>
+      </c>
+      <c r="G71">
+        <v>0.006208911756106077</v>
+      </c>
+      <c r="H71">
+        <v>0.01035171415913355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1394283680712913</v>
+        <v>0.1468362749085232</v>
       </c>
       <c r="C72">
-        <v>0.06551203579676459</v>
+        <v>-0.03664230283875421</v>
       </c>
       <c r="D72">
-        <v>0.002204640937676624</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.009682172347469823</v>
+      </c>
+      <c r="E72">
+        <v>-0.1139229704909715</v>
+      </c>
+      <c r="F72">
+        <v>-0.1538626998242741</v>
+      </c>
+      <c r="G72">
+        <v>-0.1256101286994464</v>
+      </c>
+      <c r="H72">
+        <v>0.02355452999121461</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2741223382974743</v>
+        <v>0.288304660737952</v>
       </c>
       <c r="C73">
-        <v>0.1139417764239329</v>
+        <v>-0.04662096728757254</v>
       </c>
       <c r="D73">
-        <v>-0.04157481678796113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09881867209987159</v>
+      </c>
+      <c r="E73">
+        <v>-0.2139100584714763</v>
+      </c>
+      <c r="F73">
+        <v>0.1173523095396024</v>
+      </c>
+      <c r="G73">
+        <v>0.1558112876168739</v>
+      </c>
+      <c r="H73">
+        <v>-0.4589146648075323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07981183026011247</v>
+        <v>0.09285315367719291</v>
       </c>
       <c r="C74">
-        <v>0.07678727681409332</v>
+        <v>-0.05890739352754622</v>
       </c>
       <c r="D74">
-        <v>-0.01477545037439736</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02995848580843996</v>
+      </c>
+      <c r="E74">
+        <v>-0.006305317769380379</v>
+      </c>
+      <c r="F74">
+        <v>-0.006032504218384693</v>
+      </c>
+      <c r="G74">
+        <v>0.05838244387013767</v>
+      </c>
+      <c r="H74">
+        <v>0.1204474768921268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09374244398434602</v>
+        <v>0.09970532791132138</v>
       </c>
       <c r="C75">
-        <v>0.05546207174209732</v>
+        <v>-0.02999647974286978</v>
       </c>
       <c r="D75">
-        <v>-0.007096300776594811</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01493525263579351</v>
+      </c>
+      <c r="E75">
+        <v>0.008681653281219916</v>
+      </c>
+      <c r="F75">
+        <v>0.02674081547626215</v>
+      </c>
+      <c r="G75">
+        <v>0.02159537061455445</v>
+      </c>
+      <c r="H75">
+        <v>0.112722240073022</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1297911673527134</v>
+        <v>0.1406344453880012</v>
       </c>
       <c r="C76">
-        <v>0.08413505528926744</v>
+        <v>-0.05722243178539712</v>
       </c>
       <c r="D76">
-        <v>-0.05070561129075874</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05005686403382453</v>
+      </c>
+      <c r="E76">
+        <v>0.02971600325984827</v>
+      </c>
+      <c r="F76">
+        <v>0.04479104933872406</v>
+      </c>
+      <c r="G76">
+        <v>0.02313436311724501</v>
+      </c>
+      <c r="H76">
+        <v>0.1966972881686545</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1137914195895349</v>
+        <v>0.1085359289170459</v>
       </c>
       <c r="C77">
-        <v>0.02389501090290265</v>
+        <v>0.005583686805181777</v>
       </c>
       <c r="D77">
-        <v>-0.05157966683661235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02499045532372999</v>
+      </c>
+      <c r="E77">
+        <v>0.0357956715487904</v>
+      </c>
+      <c r="F77">
+        <v>0.1343408409579741</v>
+      </c>
+      <c r="G77">
+        <v>-0.893638093447142</v>
+      </c>
+      <c r="H77">
+        <v>-0.0962159067516194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09927954905649336</v>
+        <v>0.1384299137374916</v>
       </c>
       <c r="C78">
-        <v>0.04025192091005646</v>
+        <v>-0.0328917451866711</v>
       </c>
       <c r="D78">
-        <v>-0.083489922205293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08674820375744081</v>
+      </c>
+      <c r="E78">
+        <v>0.05919361551251936</v>
+      </c>
+      <c r="F78">
+        <v>0.03572598837100609</v>
+      </c>
+      <c r="G78">
+        <v>-0.07631051670167584</v>
+      </c>
+      <c r="H78">
+        <v>-0.04369947639565021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1469575553295486</v>
+        <v>0.1522811555833367</v>
       </c>
       <c r="C79">
-        <v>0.0781157397653504</v>
+        <v>-0.04421586129659199</v>
       </c>
       <c r="D79">
-        <v>-0.02428617753890753</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02668855139905253</v>
+      </c>
+      <c r="E79">
+        <v>-0.01272238864031589</v>
+      </c>
+      <c r="F79">
+        <v>0.02010840525729234</v>
+      </c>
+      <c r="G79">
+        <v>0.03424442109553567</v>
+      </c>
+      <c r="H79">
+        <v>0.1735436487847073</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04563704633662128</v>
+        <v>0.04293508737242303</v>
       </c>
       <c r="C80">
-        <v>0.01512576634252871</v>
+        <v>-0.005291694884725548</v>
       </c>
       <c r="D80">
-        <v>-0.0289058176377794</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0191857712161538</v>
+      </c>
+      <c r="E80">
+        <v>-0.007949433872029543</v>
+      </c>
+      <c r="F80">
+        <v>-0.005913186688071066</v>
+      </c>
+      <c r="G80">
+        <v>0.03668116444142533</v>
+      </c>
+      <c r="H80">
+        <v>0.03558827655833908</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1145204566863393</v>
+        <v>0.1204739168089284</v>
       </c>
       <c r="C81">
-        <v>0.06538174269142162</v>
+        <v>-0.03849048622103596</v>
       </c>
       <c r="D81">
-        <v>-0.02832535443251891</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02288762631990545</v>
+      </c>
+      <c r="E81">
+        <v>0.02459354148376016</v>
+      </c>
+      <c r="F81">
+        <v>0.01320228384149404</v>
+      </c>
+      <c r="G81">
+        <v>0.06256891387486543</v>
+      </c>
+      <c r="H81">
+        <v>0.1503643660360373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1300535264257969</v>
+        <v>0.1318368105089603</v>
       </c>
       <c r="C82">
-        <v>0.08030848123358948</v>
+        <v>-0.05137098632894208</v>
       </c>
       <c r="D82">
-        <v>-0.01601448013949597</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.02649201457767038</v>
+      </c>
+      <c r="E82">
+        <v>-0.01308752148364455</v>
+      </c>
+      <c r="F82">
+        <v>0.05866687804651741</v>
+      </c>
+      <c r="G82">
+        <v>0.05271552002684043</v>
+      </c>
+      <c r="H82">
+        <v>0.2030350490455859</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07922731358373215</v>
+        <v>0.08851430630288902</v>
       </c>
       <c r="C83">
-        <v>-0.005543781478261932</v>
+        <v>0.02153023002003739</v>
       </c>
       <c r="D83">
-        <v>-0.02538073184363471</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03327343016106756</v>
+      </c>
+      <c r="E83">
+        <v>0.02621511923451439</v>
+      </c>
+      <c r="F83">
+        <v>0.05586100724421929</v>
+      </c>
+      <c r="G83">
+        <v>0.0759359680991681</v>
+      </c>
+      <c r="H83">
+        <v>-0.07514197864681148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02736209748903774</v>
+        <v>0.03706165248869536</v>
       </c>
       <c r="C84">
-        <v>0.02559100260507034</v>
+        <v>-0.020599422740388</v>
       </c>
       <c r="D84">
-        <v>-0.03469420098008959</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02961754486815501</v>
+      </c>
+      <c r="E84">
+        <v>0.01982471058400631</v>
+      </c>
+      <c r="F84">
+        <v>-0.05767238540675974</v>
+      </c>
+      <c r="G84">
+        <v>0.06103190961106834</v>
+      </c>
+      <c r="H84">
+        <v>-0.0001018419758054381</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1197056117982948</v>
+        <v>0.1202363052325657</v>
       </c>
       <c r="C85">
-        <v>0.05900751449055878</v>
+        <v>-0.02913679141896277</v>
       </c>
       <c r="D85">
-        <v>-0.01834723731863235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02397241457304577</v>
+      </c>
+      <c r="E85">
+        <v>0.02514899957623944</v>
+      </c>
+      <c r="F85">
+        <v>0.04211189500077195</v>
+      </c>
+      <c r="G85">
+        <v>0.0264963984285876</v>
+      </c>
+      <c r="H85">
+        <v>0.1535538905521214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.04953543195529181</v>
+        <v>0.05812887415076038</v>
       </c>
       <c r="C86">
-        <v>0.0304576372436491</v>
+        <v>-0.01999578225903034</v>
       </c>
       <c r="D86">
-        <v>-0.02286893811858921</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02449446499954328</v>
+      </c>
+      <c r="E86">
+        <v>0.06410568887084982</v>
+      </c>
+      <c r="F86">
+        <v>0.02402769544400286</v>
+      </c>
+      <c r="G86">
+        <v>0.01904368535174772</v>
+      </c>
+      <c r="H86">
+        <v>-0.005283219940365546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1214327642845328</v>
+        <v>0.1219863822387667</v>
       </c>
       <c r="C87">
-        <v>0.0715990038314365</v>
+        <v>-0.03616436820467477</v>
       </c>
       <c r="D87">
-        <v>-0.07987956160499168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07576296737344976</v>
+      </c>
+      <c r="E87">
+        <v>0.02410464154622432</v>
+      </c>
+      <c r="F87">
+        <v>-0.005407548143645258</v>
+      </c>
+      <c r="G87">
+        <v>-0.1163705540046956</v>
+      </c>
+      <c r="H87">
+        <v>-0.03456701548812662</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0528738384913429</v>
+        <v>0.06034270927931546</v>
       </c>
       <c r="C88">
-        <v>0.02935551525005493</v>
+        <v>-0.01862320484553212</v>
       </c>
       <c r="D88">
-        <v>-0.01768372528687941</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03007902284444221</v>
+      </c>
+      <c r="E88">
+        <v>0.0201532782553639</v>
+      </c>
+      <c r="F88">
+        <v>0.005748688981773662</v>
+      </c>
+      <c r="G88">
+        <v>-0.003515221336687444</v>
+      </c>
+      <c r="H88">
+        <v>0.05089808032984437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08063742905328666</v>
+        <v>0.09308194553957984</v>
       </c>
       <c r="C89">
-        <v>0.06926415624711346</v>
+        <v>-0.08078757581026759</v>
       </c>
       <c r="D89">
-        <v>0.3236576424375868</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3465996287881815</v>
+      </c>
+      <c r="E89">
+        <v>0.06943164515987525</v>
+      </c>
+      <c r="F89">
+        <v>0.08356588683475762</v>
+      </c>
+      <c r="G89">
+        <v>0.02909218069686368</v>
+      </c>
+      <c r="H89">
+        <v>0.01485256046125329</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07294122402066058</v>
+        <v>0.079140481234448</v>
       </c>
       <c r="C90">
-        <v>0.06290783645921953</v>
+        <v>-0.07040235724627181</v>
       </c>
       <c r="D90">
-        <v>0.3242193946732375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3094554103798381</v>
+      </c>
+      <c r="E90">
+        <v>0.0599892615963938</v>
+      </c>
+      <c r="F90">
+        <v>0.003692548362803921</v>
+      </c>
+      <c r="G90">
+        <v>0.001938665530502005</v>
+      </c>
+      <c r="H90">
+        <v>0.005952488611038741</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08481573918324535</v>
+        <v>0.08931278827698236</v>
       </c>
       <c r="C91">
-        <v>0.05576066369834555</v>
+        <v>-0.03361598290955897</v>
       </c>
       <c r="D91">
-        <v>-0.0336695235989536</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03141721693024849</v>
+      </c>
+      <c r="E91">
+        <v>0.01580370470036082</v>
+      </c>
+      <c r="F91">
+        <v>0.003475107679448414</v>
+      </c>
+      <c r="G91">
+        <v>0.0552665273398474</v>
+      </c>
+      <c r="H91">
+        <v>0.07551082169396597</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07370763764808913</v>
+        <v>0.07902025720077432</v>
       </c>
       <c r="C92">
-        <v>0.07369291249463271</v>
+        <v>-0.08242515723228121</v>
       </c>
       <c r="D92">
-        <v>0.3447753029916308</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3435571760304131</v>
+      </c>
+      <c r="E92">
+        <v>0.04435777193045003</v>
+      </c>
+      <c r="F92">
+        <v>0.04074542795515165</v>
+      </c>
+      <c r="G92">
+        <v>-0.01177939019848524</v>
+      </c>
+      <c r="H92">
+        <v>0.01652401036388781</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06508205240699946</v>
+        <v>0.07671460546047901</v>
       </c>
       <c r="C93">
-        <v>0.06660099902701666</v>
+        <v>-0.08022620117353187</v>
       </c>
       <c r="D93">
-        <v>0.3185931788684204</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.3057202785739274</v>
+      </c>
+      <c r="E93">
+        <v>0.03636915781100154</v>
+      </c>
+      <c r="F93">
+        <v>0.03972131866701838</v>
+      </c>
+      <c r="G93">
+        <v>-0.01402984240907686</v>
+      </c>
+      <c r="H93">
+        <v>-0.01037672296703822</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1323284816996467</v>
+        <v>0.1269107532572037</v>
       </c>
       <c r="C94">
-        <v>0.05824896261392637</v>
+        <v>-0.02250505727884834</v>
       </c>
       <c r="D94">
-        <v>-0.04157399410053224</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04829552721643057</v>
+      </c>
+      <c r="E94">
+        <v>-0.001770583701472321</v>
+      </c>
+      <c r="F94">
+        <v>0.02017273289552057</v>
+      </c>
+      <c r="G94">
+        <v>0.05983732429167491</v>
+      </c>
+      <c r="H94">
+        <v>0.09964086631203238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1194401257424079</v>
+        <v>0.1266137413779063</v>
       </c>
       <c r="C95">
-        <v>0.03411775696206031</v>
+        <v>-0.005161121308357775</v>
       </c>
       <c r="D95">
-        <v>-0.05536042130835454</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06758339217846797</v>
+      </c>
+      <c r="E95">
+        <v>0.01695557998057723</v>
+      </c>
+      <c r="F95">
+        <v>0.04539999852793272</v>
+      </c>
+      <c r="G95">
+        <v>-0.03226118936752737</v>
+      </c>
+      <c r="H95">
+        <v>-0.08698130662385051</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2058298900057378</v>
+        <v>0.2099898100824726</v>
       </c>
       <c r="C97">
-        <v>0.0424895524803151</v>
+        <v>-0.0007574763482077806</v>
       </c>
       <c r="D97">
-        <v>0.07427726136674044</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.09371030485460621</v>
+      </c>
+      <c r="E97">
+        <v>-0.3163560635863295</v>
+      </c>
+      <c r="F97">
+        <v>-0.8635245726416121</v>
+      </c>
+      <c r="G97">
+        <v>-0.09733660655228005</v>
+      </c>
+      <c r="H97">
+        <v>0.01298421941847258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2439301755190511</v>
+        <v>0.2745553099796553</v>
       </c>
       <c r="C98">
-        <v>0.07595090456057831</v>
+        <v>-0.03316187185285675</v>
       </c>
       <c r="D98">
-        <v>-0.05086794874286693</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05998317373015839</v>
+      </c>
+      <c r="E98">
+        <v>-0.1680386672896129</v>
+      </c>
+      <c r="F98">
+        <v>0.08043280715179092</v>
+      </c>
+      <c r="G98">
+        <v>0.2273320691735734</v>
+      </c>
+      <c r="H98">
+        <v>-0.284918621457535</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4565962960697737</v>
+        <v>0.2846541425614347</v>
       </c>
       <c r="C99">
-        <v>-0.8733876706562348</v>
+        <v>0.9341911126476652</v>
       </c>
       <c r="D99">
-        <v>0.05732130480671052</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1337047007407887</v>
+      </c>
+      <c r="E99">
+        <v>0.06672878220501501</v>
+      </c>
+      <c r="F99">
+        <v>0.04843180709165222</v>
+      </c>
+      <c r="G99">
+        <v>0.02177211945392985</v>
+      </c>
+      <c r="H99">
+        <v>0.06829391481310124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.03998927910786614</v>
+        <v>0.04829014284502752</v>
       </c>
       <c r="C101">
-        <v>0.03137849636734964</v>
+        <v>-0.02614668725557736</v>
       </c>
       <c r="D101">
-        <v>-0.0008002935895350636</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.006030023689782192</v>
+      </c>
+      <c r="E101">
+        <v>0.05480507701913045</v>
+      </c>
+      <c r="F101">
+        <v>-0.003099798370628855</v>
+      </c>
+      <c r="G101">
+        <v>0.01322071095404106</v>
+      </c>
+      <c r="H101">
+        <v>0.07695776515676866</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
